--- a/results/pidis0/sim/pvdis-had-p-opt-mean.xlsx
+++ b/results/pidis0/sim/pvdis-had-p-opt-mean.xlsx
@@ -2994,7 +2994,7 @@
         <v>429</v>
       </c>
       <c r="M2">
-        <v>6.725030658561234e-06</v>
+        <v>1.151967495606364e-05</v>
       </c>
       <c r="N2">
         <v>6.710963735621522e-10</v>
@@ -4280,7 +4280,7 @@
         <v>429</v>
       </c>
       <c r="M3">
-        <v>1.671487004604274e-06</v>
+        <v>1.037159131808186e-05</v>
       </c>
       <c r="N3">
         <v>2.224277269425077e-10</v>
@@ -5566,7 +5566,7 @@
         <v>429</v>
       </c>
       <c r="M4">
-        <v>2.570476537277389e-06</v>
+        <v>8.000102676909013e-06</v>
       </c>
       <c r="N4">
         <v>2.536965595194109e-09</v>
@@ -6852,7 +6852,7 @@
         <v>429</v>
       </c>
       <c r="M5">
-        <v>9.378131260478442e-07</v>
+        <v>-9.659550161827288e-06</v>
       </c>
       <c r="N5">
         <v>-2.141580271710578e-10</v>
@@ -8138,7 +8138,7 @@
         <v>429</v>
       </c>
       <c r="M6">
-        <v>9.689552736589216e-07</v>
+        <v>8.450378436374257e-06</v>
       </c>
       <c r="N6">
         <v>8.656418439663002e-10</v>
@@ -9424,7 +9424,7 @@
         <v>429</v>
       </c>
       <c r="M7">
-        <v>5.357910224280888e-07</v>
+        <v>-9.599362751888897e-06</v>
       </c>
       <c r="N7">
         <v>-7.255707059354851e-10</v>
@@ -10710,7 +10710,7 @@
         <v>429</v>
       </c>
       <c r="M8">
-        <v>5.456463304965753e-07</v>
+        <v>-7.887307493424973e-06</v>
       </c>
       <c r="N8">
         <v>-7.376649624840758e-10</v>
@@ -11996,7 +11996,7 @@
         <v>429</v>
       </c>
       <c r="M9">
-        <v>9.261209598841917e-07</v>
+        <v>2.021916226859355e-05</v>
       </c>
       <c r="N9">
         <v>3.318713035362217e-09</v>
@@ -13282,7 +13282,7 @@
         <v>429</v>
       </c>
       <c r="M10">
-        <v>3.091528804775817e-07</v>
+        <v>-1.040243590444556e-05</v>
       </c>
       <c r="N10">
         <v>-1.408508942424865e-09</v>
@@ -14568,7 +14568,7 @@
         <v>429</v>
       </c>
       <c r="M11">
-        <v>3.142701703590341e-07</v>
+        <v>-5.348042660466143e-06</v>
       </c>
       <c r="N11">
         <v>-2.639331443695591e-09</v>
@@ -15854,7 +15854,7 @@
         <v>429</v>
       </c>
       <c r="M12">
-        <v>4.685048020596632e-07</v>
+        <v>-1.799320850935981e-05</v>
       </c>
       <c r="N12">
         <v>-3.383307222216452e-09</v>
@@ -17140,7 +17140,7 @@
         <v>429</v>
       </c>
       <c r="M13">
-        <v>9.607099692552807e-07</v>
+        <v>3.529432221435883e-05</v>
       </c>
       <c r="N13">
         <v>6.704190436616107e-09</v>
@@ -18426,7 +18426,7 @@
         <v>429</v>
       </c>
       <c r="M14">
-        <v>1.793427860826757e-07</v>
+        <v>-1.241859927945383e-05</v>
       </c>
       <c r="N14">
         <v>-2.397562843694182e-09</v>
@@ -19712,7 +19712,7 @@
         <v>429</v>
       </c>
       <c r="M15">
-        <v>1.831103709636771e-07</v>
+        <v>-7.186629911388962e-06</v>
       </c>
       <c r="N15">
         <v>-5.261084723040375e-09</v>
@@ -20998,7 +20998,7 @@
         <v>429</v>
       </c>
       <c r="M16">
-        <v>2.703477391317196e-07</v>
+        <v>-1.290971032383082e-05</v>
       </c>
       <c r="N16">
         <v>-1.133317379143452e-08</v>
@@ -22284,7 +22284,7 @@
         <v>429</v>
       </c>
       <c r="M17">
-        <v>4.315254278237518e-07</v>
+        <v>-2.840011750947616e-05</v>
       </c>
       <c r="N17">
         <v>-2.24433662428417e-08</v>
@@ -23570,7 +23570,7 @@
         <v>429</v>
       </c>
       <c r="M18">
-        <v>1.042842490044369e-07</v>
+        <v>-1.564499776123489e-05</v>
       </c>
       <c r="N18">
         <v>-3.89362577239898e-09</v>
@@ -24856,7 +24856,7 @@
         <v>429</v>
       </c>
       <c r="M19">
-        <v>1.072702529530099e-07</v>
+        <v>-1.447366718753444e-05</v>
       </c>
       <c r="N19">
         <v>-9.20230338920657e-09</v>
@@ -26142,7 +26142,7 @@
         <v>429</v>
       </c>
       <c r="M20">
-        <v>1.585204504496489e-07</v>
+        <v>-1.18536531143332e-05</v>
       </c>
       <c r="N20">
         <v>-2.251598581441813e-08</v>
@@ -27428,7 +27428,7 @@
         <v>429</v>
       </c>
       <c r="M21">
-        <v>2.441103002260238e-07</v>
+        <v>-9.790304670333971e-06</v>
       </c>
       <c r="N21">
         <v>-5.759708887074829e-08</v>
@@ -28714,7 +28714,7 @@
         <v>429</v>
       </c>
       <c r="M22">
-        <v>4.456031260940952e-07</v>
+        <v>-3.016728586608131e-05</v>
       </c>
       <c r="N22">
         <v>-1.618546834169594e-07</v>
@@ -30000,7 +30000,7 @@
         <v>429</v>
       </c>
       <c r="M23">
-        <v>6.036986920655267e-08</v>
+        <v>-1.939994549937425e-05</v>
       </c>
       <c r="N23">
         <v>-6.166815464311294e-09</v>
@@ -31286,7 +31286,7 @@
         <v>429</v>
       </c>
       <c r="M24">
-        <v>6.271229101713431e-08</v>
+        <v>-2.150445343652925e-05</v>
       </c>
       <c r="N24">
         <v>-1.534429158521574e-08</v>
@@ -32572,7 +32572,7 @@
         <v>429</v>
       </c>
       <c r="M25">
-        <v>9.345788393887006e-08</v>
+        <v>-2.596429714533728e-05</v>
       </c>
       <c r="N25">
         <v>-3.971585335476393e-08</v>
@@ -33858,7 +33858,7 @@
         <v>429</v>
       </c>
       <c r="M26">
-        <v>1.434928591795737e-07</v>
+        <v>-3.366987714504192e-05</v>
       </c>
       <c r="N26">
         <v>-1.082041502869241e-07</v>
@@ -35144,7 +35144,7 @@
         <v>429</v>
       </c>
       <c r="M27">
-        <v>2.304115926005488e-07</v>
+        <v>-4.719515095077355e-05</v>
       </c>
       <c r="N27">
         <v>-3.297839098497598e-07</v>
@@ -36430,7 +36430,7 @@
         <v>429</v>
       </c>
       <c r="M28">
-        <v>3.43909944764331e-08</v>
+        <v>-2.214260851210632e-05</v>
       </c>
       <c r="N28">
         <v>-9.504333028701161e-09</v>
@@ -37716,7 +37716,7 @@
         <v>429</v>
       </c>
       <c r="M29">
-        <v>3.626253498092265e-08</v>
+        <v>-2.758819240535651e-05</v>
       </c>
       <c r="N29">
         <v>-2.489404416846971e-08</v>
@@ -39002,7 +39002,7 @@
         <v>429</v>
       </c>
       <c r="M30">
-        <v>5.486996991156791e-08</v>
+        <v>-3.755941226092295e-05</v>
       </c>
       <c r="N30">
         <v>-6.684448557778019e-08</v>
@@ -40288,7 +40288,7 @@
         <v>429</v>
       </c>
       <c r="M31">
-        <v>8.485057358686444e-08</v>
+        <v>-5.444314717110378e-05</v>
       </c>
       <c r="N31">
         <v>-1.863046818928528e-07</v>
@@ -41574,7 +41574,7 @@
         <v>429</v>
       </c>
       <c r="M32">
-        <v>1.347189756522622e-07</v>
+        <v>-8.271786911640858e-05</v>
       </c>
       <c r="N32">
         <v>-5.667064030962385e-07</v>
@@ -42860,7 +42860,7 @@
         <v>429</v>
       </c>
       <c r="M33">
-        <v>2.295172017487983e-07</v>
+        <v>-0.0001356171651785513</v>
       </c>
       <c r="N33">
         <v>-2.090787645314963e-06</v>
@@ -44146,7 +44146,7 @@
         <v>429</v>
       </c>
       <c r="M34">
-        <v>2.156833118463808e-08</v>
+        <v>-2.278677939218987e-05</v>
       </c>
       <c r="N34">
         <v>-1.439802933811684e-08</v>
@@ -45432,7 +45432,7 @@
         <v>429</v>
       </c>
       <c r="M35">
-        <v>2.067640702614141e-08</v>
+        <v>-3.162376890544916e-05</v>
       </c>
       <c r="N35">
         <v>-3.964259861587194e-08</v>
@@ -46718,7 +46718,7 @@
         <v>429</v>
       </c>
       <c r="M36">
-        <v>3.193369844117046e-08</v>
+        <v>-4.655831058258397e-05</v>
       </c>
       <c r="N36">
         <v>-1.091274255698591e-07</v>
@@ -48004,7 +48004,7 @@
         <v>429</v>
       </c>
       <c r="M37">
-        <v>5.004094342629641e-08</v>
+        <v>-7.118909950090548e-05</v>
       </c>
       <c r="N37">
         <v>-3.059151211477379e-07</v>
@@ -49290,7 +49290,7 @@
         <v>429</v>
       </c>
       <c r="M38">
-        <v>7.958610613981305e-08</v>
+        <v>-0.00011151337410181</v>
       </c>
       <c r="N38">
         <v>-9.086282013790722e-07</v>
@@ -50576,7 +50576,7 @@
         <v>429</v>
       </c>
       <c r="M39">
-        <v>1.306966187751763e-07</v>
+        <v>-0.0001818921991776645</v>
       </c>
       <c r="N39">
         <v>-3.092147149618219e-06</v>
@@ -51862,7 +51862,7 @@
         <v>429</v>
       </c>
       <c r="M40">
-        <v>2.57075980236194e-07</v>
+        <v>-0.0003167604421707519</v>
       </c>
       <c r="N40">
         <v>-1.333860745011789e-05</v>
@@ -53148,7 +53148,7 @@
         <v>429</v>
       </c>
       <c r="M41">
-        <v>1.615011307782856e-08</v>
+        <v>-3.465103800820295e-05</v>
       </c>
       <c r="N41">
         <v>-6.276514009820193e-08</v>
@@ -54434,7 +54434,7 @@
         <v>429</v>
       </c>
       <c r="M42">
-        <v>1.875096032468199e-08</v>
+        <v>-5.384088075923983e-05</v>
       </c>
       <c r="N42">
         <v>-1.7333408252077e-07</v>
@@ -55720,7 +55720,7 @@
         <v>429</v>
       </c>
       <c r="M43">
-        <v>2.984465943048563e-08</v>
+        <v>-8.535044026771884e-05</v>
       </c>
       <c r="N43">
         <v>-4.814940334796815e-07</v>
@@ -57006,7 +57006,7 @@
         <v>429</v>
       </c>
       <c r="M44">
-        <v>4.785365926906363e-08</v>
+        <v>-0.0001368336610625007</v>
       </c>
       <c r="N44">
         <v>-1.384583462573723e-06</v>
@@ -58292,7 +58292,7 @@
         <v>429</v>
       </c>
       <c r="M45">
-        <v>7.812813105847834e-08</v>
+        <v>-0.0002240184276040406</v>
       </c>
       <c r="N45">
         <v>-4.355330963333352e-06</v>
@@ -59578,7 +59578,7 @@
         <v>429</v>
       </c>
       <c r="M46">
-        <v>1.333429566261289e-07</v>
+        <v>-0.0003806096833746809</v>
       </c>
       <c r="N46">
         <v>-1.632804533325114e-05</v>
@@ -60864,7 +60864,7 @@
         <v>429</v>
       </c>
       <c r="M47">
-        <v>1.568330011296174e-08</v>
+        <v>-6.477328892576193e-05</v>
       </c>
       <c r="N47">
         <v>-2.661148442022481e-07</v>
@@ -62150,7 +62150,7 @@
         <v>429</v>
       </c>
       <c r="M48">
-        <v>1.907502059157912e-08</v>
+        <v>-0.0001068959696045824</v>
       </c>
       <c r="N48">
         <v>-7.296401452728157e-07</v>
@@ -63436,7 +63436,7 @@
         <v>429</v>
       </c>
       <c r="M49">
-        <v>3.111797403899317e-08</v>
+        <v>-0.0001770473954917911</v>
       </c>
       <c r="N49">
         <v>-2.042262269665849e-06</v>
@@ -64722,7 +64722,7 @@
         <v>429</v>
       </c>
       <c r="M50">
-        <v>5.109029102138259e-08</v>
+        <v>-0.0002958337202995568</v>
       </c>
       <c r="N50">
         <v>-6.047204542847331e-06</v>
@@ -66008,7 +66008,7 @@
         <v>429</v>
       </c>
       <c r="M51">
-        <v>8.592332940104803e-08</v>
+        <v>-0.0005034748047099845</v>
       </c>
       <c r="N51">
         <v>-2.017065532632912e-05</v>
@@ -67294,7 +67294,7 @@
         <v>429</v>
       </c>
       <c r="M52">
-        <v>1.631099970011582e-07</v>
+        <v>-0.000885258059856902</v>
       </c>
       <c r="N52">
         <v>-8.284367792990761e-05</v>
@@ -68580,7 +68580,7 @@
         <v>429</v>
       </c>
       <c r="M53">
-        <v>2.409144624562797e-08</v>
+        <v>-0.0002002281350644718</v>
       </c>
       <c r="N53">
         <v>-1.187078817132618e-06</v>
@@ -69866,7 +69866,7 @@
         <v>429</v>
       </c>
       <c r="M54">
-        <v>3.994430106965609e-08</v>
+        <v>-0.0003590756010429095</v>
       </c>
       <c r="N54">
         <v>-3.300609237404382e-06</v>
@@ -71152,7 +71152,7 @@
         <v>429</v>
       </c>
       <c r="M55">
-        <v>6.614425726856686e-08</v>
+        <v>-0.0006390420311512743</v>
       </c>
       <c r="N55">
         <v>-9.435304508913348e-06</v>
@@ -72438,7 +72438,7 @@
         <v>429</v>
       </c>
       <c r="M56">
-        <v>1.11186044651183e-07</v>
+        <v>-0.001137908416641059</v>
       </c>
       <c r="N56">
         <v>-2.881503099262886e-05</v>
@@ -73724,7 +73724,7 @@
         <v>429</v>
       </c>
       <c r="M57">
-        <v>1.975281330369212e-07</v>
+        <v>-0.002056939433789469</v>
       </c>
       <c r="N57">
         <v>-0.0001007968761851898</v>
@@ -75010,7 +75010,7 @@
         <v>429</v>
       </c>
       <c r="M58">
-        <v>5.428058575381158e-07</v>
+        <v>-0.003791637754998408</v>
       </c>
       <c r="N58">
         <v>-0.0004395617955076511</v>
